--- a/similarities/split_global/harmonic_similarity_timestamps_141.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_141.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+          <t>('0:02:09.380000', '0:02:14.740000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['G', 'C', 'G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:15.865600')]</t>
+          <t>('0:00:41.205636', '0:00:59.224321')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:01.150000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=41.205636</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:11.100000', '0:01:18.700000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:00:02.612267', '0:00:20.410362')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+          <t>('0:00:57.480000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:03:52.440000', '0:04:05.220000')]</t>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=232.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:41.840000', '0:00:45.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:01:31.840000', '0:01:43.940000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=91.84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['F:7', 'Bb', 'Bb:7/3']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000'), ('0:01:04.580000', '0:01:17.220000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:10.080000', '0:00:11.390000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:55.820000', '0:01:04.420000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:05.940000', '0:00:25.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=55.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=5.94</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:16.608639')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+          <t>('0:00:05.734000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=5.734</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_208</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:02:49.152131', '0:02:57.917664')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:58.920000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-208#t=169.152131</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:01:00.800000', '0:01:09.040000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.500000', '0:00:29.300000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:50.460000', '0:00:54.480000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=22.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=50.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
